--- a/biology/Médecine/Gianvito_Martino/Gianvito_Martino.xlsx
+++ b/biology/Médecine/Gianvito_Martino/Gianvito_Martino.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gianvito Martino (Bergame, Italie, 9 août 1962) est un médecin et chercheur en neurosciences italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gianvito Martino a étudié la médecine et la neurologie à l'université de Pavie et effectué des périodes d'études et de recherche à l'Institut Karolinska à Stockholm et à l'université de Chicago. Il est le directeur de la division des neurosciences à l'Institut scientifique de l'Hôpital San Raffaele (Milan) et enseigne la biologie à l'université Vie-Santé Saint-Raphaël de Milan. Il est également professeur honoraire à l'université Queen Mary de Londres.
 </t>
@@ -542,9 +556,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Gianvito Martino a publié plus de 150 publications scientifiques dans des revues internationales[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gianvito Martino a publié plus de 150 publications scientifiques dans des revues internationales.
 Pour la maison d'édition « Editrice San Raffaele » il a écrit, en collabotation avec Edoardo Boncinelli, Il cervello. La scatola delle meraviglie (Le cerveau. La boîte de merveilles), publié en 2008. 
 et a publié:
 La medicina che rigenera. Non siamo nati per invecchiare. (Le médicament qui se régénère. Nous ne sommes pas nés de vieillir) (2009)
